--- a/documents/test.xlsx
+++ b/documents/test.xlsx
@@ -771,7 +771,11 @@
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
     </row>
@@ -785,8 +789,16 @@
       <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr"/>
-      <c r="G5" s="1" t="inlineStr"/>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -803,7 +815,11 @@
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr"/>
-      <c r="G6" s="1" t="inlineStr"/>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
     </row>
@@ -821,7 +837,11 @@
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
     </row>
@@ -843,7 +863,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
     </row>
@@ -964,7 +988,11 @@
       <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
           <t>X</t>
@@ -983,7 +1011,11 @@
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr"/>
       <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
           <t>X</t>
@@ -1006,11 +1038,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I16" s="1" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B17" s="15" t="n"/>
@@ -1027,7 +1055,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr"/>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="I17" s="1" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1104,7 +1136,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B22" s="15" t="n"/>

--- a/documents/test.xlsx
+++ b/documents/test.xlsx
@@ -747,11 +747,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr"/>
       <c r="G3" s="1" t="inlineStr"/>
       <c r="H3" s="1" t="inlineStr"/>
@@ -771,11 +767,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
     </row>
@@ -789,16 +781,8 @@
       <c r="D5" s="1" t="inlineStr"/>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr"/>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -808,18 +792,14 @@
           <t>Objectivité - Esprit critique</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr"/>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G6" s="1" t="inlineStr"/>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
     </row>
@@ -830,18 +810,14 @@
           <t>Présentation - Tenue</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
     </row>
@@ -856,18 +832,22 @@
           <t>Autonomie - Esprit d'initiative</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="1" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
     </row>
@@ -878,14 +858,22 @@
           <t>Organisation - Gestion de son temps</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr"/>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="inlineStr"/>
     </row>
@@ -900,16 +888,8 @@
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr"/>
       <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B11" s="14" t="n"/>
@@ -923,11 +903,7 @@
       <c r="F11" s="1" t="inlineStr"/>
       <c r="G11" s="1" t="inlineStr"/>
       <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I11" s="1" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B12" s="15" t="n"/>
@@ -940,16 +916,8 @@
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr"/>
       <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="A13" s="2" t="inlineStr">
@@ -970,11 +938,7 @@
       <c r="D13" s="1" t="inlineStr"/>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G13" s="1" t="inlineStr"/>
       <c r="H13" s="1" t="inlineStr"/>
       <c r="I13" s="1" t="inlineStr"/>
     </row>
@@ -988,16 +952,8 @@
       <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G14" s="1" t="inlineStr"/>
+      <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1011,16 +967,8 @@
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr"/>
       <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B16" s="14" t="n"/>
@@ -1033,11 +981,7 @@
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr"/>
       <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H16" s="1" t="inlineStr"/>
       <c r="I16" s="1" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1050,16 +994,8 @@
       <c r="D17" s="1" t="inlineStr"/>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G17" s="1" t="inlineStr"/>
+      <c r="H17" s="1" t="inlineStr"/>
       <c r="I17" s="1" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1078,11 +1014,7 @@
       <c r="F18" s="1" t="inlineStr"/>
       <c r="G18" s="1" t="inlineStr"/>
       <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="I18" s="1" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B19" s="14" t="n"/>
@@ -1109,16 +1041,8 @@
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr"/>
       <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H20" s="1" t="inlineStr"/>
+      <c r="I20" s="1" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B21" s="14" t="n"/>
@@ -1131,16 +1055,8 @@
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr"/>
       <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B22" s="15" t="n"/>
@@ -1176,16 +1092,8 @@
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr"/>
       <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="H23" s="1" t="inlineStr"/>
+      <c r="I23" s="1" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
       <c r="B24" s="14" t="n"/>
@@ -1211,16 +1119,8 @@
       <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr"/>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G25" s="1" t="inlineStr"/>
+      <c r="H25" s="1" t="inlineStr"/>
       <c r="I25" s="1" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1" thickBot="1" thickTop="1">
@@ -1246,16 +1146,8 @@
       </c>
       <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F27" s="1" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr"/>
       <c r="H27" s="1" t="inlineStr"/>
       <c r="I27" s="1" t="inlineStr"/>
     </row>
@@ -1269,16 +1161,8 @@
       <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G28" s="1" t="inlineStr"/>
+      <c r="H28" s="1" t="inlineStr"/>
       <c r="I28" s="1" t="inlineStr"/>
     </row>
     <row r="29" ht="15" customHeight="1" thickTop="1"/>

--- a/documents/test.xlsx
+++ b/documents/test.xlsx
@@ -842,11 +842,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F8" s="1" t="inlineStr"/>
       <c r="G8" s="1" t="inlineStr"/>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
@@ -863,11 +859,7 @@
           <t>X</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
           <t>X</t>
